--- a/Study 3/Shocks/GCAM/NDC_LTT - 2035.xlsx
+++ b/Study 3/Shocks/GCAM/NDC_LTT - 2035.xlsx
@@ -11562,7 +11562,7 @@
         </is>
       </c>
       <c r="H6" t="n">
-        <v>0.3889863206413127</v>
+        <v>0.3889863206413126</v>
       </c>
     </row>
     <row r="7">
@@ -11842,7 +11842,7 @@
         </is>
       </c>
       <c r="H13" t="n">
-        <v>0.264261894339279</v>
+        <v>0.2642618943392791</v>
       </c>
     </row>
     <row r="14">
@@ -11882,7 +11882,7 @@
         </is>
       </c>
       <c r="H14" t="n">
-        <v>0.003158848015885657</v>
+        <v>0.003158848015885656</v>
       </c>
     </row>
     <row r="15">
@@ -12002,7 +12002,7 @@
         </is>
       </c>
       <c r="H17" t="n">
-        <v>0.03668269264709334</v>
+        <v>0.03668269264709335</v>
       </c>
     </row>
     <row r="18">
@@ -12322,7 +12322,7 @@
         </is>
       </c>
       <c r="H25" t="n">
-        <v>0.1009422313164161</v>
+        <v>0.1009422313164162</v>
       </c>
     </row>
     <row r="26">
@@ -12362,7 +12362,7 @@
         </is>
       </c>
       <c r="H26" t="n">
-        <v>0.0006060623160749803</v>
+        <v>0.0006060623160749802</v>
       </c>
     </row>
     <row r="27">
@@ -12642,7 +12642,7 @@
         </is>
       </c>
       <c r="H33" t="n">
-        <v>0.001840884171271527</v>
+        <v>0.001840884171271528</v>
       </c>
     </row>
     <row r="34">
@@ -12802,7 +12802,7 @@
         </is>
       </c>
       <c r="H37" t="n">
-        <v>0.1781690351729473</v>
+        <v>0.1781690351729474</v>
       </c>
     </row>
     <row r="38">
@@ -12842,7 +12842,7 @@
         </is>
       </c>
       <c r="H38" t="n">
-        <v>0.09518062827256403</v>
+        <v>0.09518062827256402</v>
       </c>
     </row>
     <row r="39">
